--- a/excel/etf_eigenvector_centrality.xlsx
+++ b/excel/etf_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2534781344909147</v>
+        <v>0.2534777150996397</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2505092387284802</v>
+        <v>0.2505093890492672</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2496031083520136</v>
+        <v>0.2496026672007227</v>
       </c>
     </row>
     <row r="5">
@@ -415,77 +415,77 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2495014905391828</v>
+        <v>0.2495016299333534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dragan Bojic</t>
+          <t>Marija Punt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2495014905391828</v>
+        <v>0.2495016299333534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zaharije Radivojevic</t>
+          <t>Dragan Bojic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2495014905391828</v>
+        <v>0.2495016299333533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Milos Cvetanovic</t>
+          <t>Zaharije Radivojevic</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2495014905391828</v>
+        <v>0.2495016299333533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marija Punt</t>
+          <t>Milos Cvetanovic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2495014905391828</v>
+        <v>0.2495016299333533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jelica Protic</t>
+          <t>Djordje Djurdjevic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.247649626146803</v>
+        <v>0.2476496071499655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Milo Tomasevic</t>
+          <t>Jelica Protic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.247649626146803</v>
+        <v>0.2476496071499654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Djordje Djurdjevic</t>
+          <t>Milo Tomasevic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.247649626146803</v>
+        <v>0.2476496071499654</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.244458680289422</v>
+        <v>0.2444587639257235</v>
       </c>
     </row>
     <row r="14">
@@ -505,37 +505,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2434752682754257</v>
+        <v>0.2434753455047768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Igor Tartalja</t>
+          <t>Pavle Vuletic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2434752682754257</v>
+        <v>0.2434753455047768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pavle Vuletic</t>
+          <t>Slavko Gajin</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2434752682754257</v>
+        <v>0.2434753455047767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Slavko Gajin</t>
+          <t>Igor Tartalja</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2434752682754257</v>
+        <v>0.2434753455047767</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09807369528922674</v>
+        <v>0.0980739585020875</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06793386668994385</v>
+        <v>0.06793346185682564</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04121484458666773</v>
+        <v>0.04121402452820625</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03704048671529049</v>
+        <v>0.03703976288301756</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02146511242931954</v>
+        <v>0.02146448856120415</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01659510581023419</v>
+        <v>0.01659497453761028</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01640059417411313</v>
+        <v>0.01640064070749081</v>
       </c>
     </row>
     <row r="25">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01600448481223365</v>
+        <v>0.01600451132853374</v>
       </c>
     </row>
   </sheetData>

--- a/excel/etf_eigenvector_centrality.xlsx
+++ b/excel/etf_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2534777150996397</v>
+        <v>0.2534777150996396</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2496026672007227</v>
+        <v>0.2496026672007226</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Marija Punt</t>
+          <t>Zaharije Radivojevic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -441,7 +441,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zaharije Radivojevic</t>
+          <t>Milos Cvetanovic</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -451,7 +451,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Milos Cvetanovic</t>
+          <t>Marija Punt</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2476496071499654</v>
+        <v>0.2476496071499655</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zoran Jovanovic</t>
+          <t>Slavko Gajin</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -511,17 +511,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pavle Vuletic</t>
+          <t>Zoran Jovanovic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2434753455047768</v>
+        <v>0.2434753455047767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Slavko Gajin</t>
+          <t>Pavle Vuletic</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2434753455047767</v>
+        <v>0.2434753455047766</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0980739585020875</v>
+        <v>0.09807395850208753</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06793346185682564</v>
+        <v>0.06793346185682562</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04121402452820625</v>
+        <v>0.04121402452820624</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03703976288301756</v>
+        <v>0.0370397628830175</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02146448856120415</v>
+        <v>0.02146448856120408</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01659497453761028</v>
+        <v>0.01659497453761022</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01640064070749081</v>
+        <v>0.01640064070749061</v>
       </c>
     </row>
     <row r="25">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01600451132853374</v>
+        <v>0.01600451132853381</v>
       </c>
     </row>
   </sheetData>

--- a/excel/etf_eigenvector_centrality.xlsx
+++ b/excel/etf_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2534777150996396</v>
+        <v>0.2534777150996397</v>
       </c>
     </row>
     <row r="3">
@@ -405,13 +405,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2496026672007226</v>
+        <v>0.2496026672007227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Miroslav Bojovic</t>
+          <t>Zaharije Radivojevic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zaharije Radivojevic</t>
+          <t>Miroslav Bojovic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -431,17 +431,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dragan Bojic</t>
+          <t>Marija Punt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2495016299333533</v>
+        <v>0.2495016299333534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Milos Cvetanovic</t>
+          <t>Dragan Bojic</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -451,7 +451,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marija Punt</t>
+          <t>Milos Cvetanovic</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -461,7 +461,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Djordje Djurdjevic</t>
+          <t>Jelica Protic</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -471,7 +471,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jelica Protic</t>
+          <t>Milo Tomasevic</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -481,11 +481,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Milo Tomasevic</t>
+          <t>Djordje Djurdjevic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2476496071499654</v>
+        <v>0.2476496071499655</v>
       </c>
     </row>
     <row r="13">
@@ -501,7 +501,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Slavko Gajin</t>
+          <t>Zoran Jovanovic</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -511,21 +511,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zoran Jovanovic</t>
+          <t>Pavle Vuletic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2434753455047767</v>
+        <v>0.2434753455047768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pavle Vuletic</t>
+          <t>Slavko Gajin</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2434753455047767</v>
+        <v>0.2434753455047768</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2434753455047766</v>
+        <v>0.2434753455047767</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09807395850208753</v>
+        <v>0.09807395850208742</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06793346185682562</v>
+        <v>0.06793346185682568</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04121402452820624</v>
+        <v>0.0412140245282063</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0370397628830175</v>
+        <v>0.03703976288301752</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02146448856120408</v>
+        <v>0.02146448856120419</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01659497453761022</v>
+        <v>0.01659497453761013</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01640064070749061</v>
+        <v>0.01640064070749062</v>
       </c>
     </row>
     <row r="25">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01600451132853381</v>
+        <v>0.01600451132853378</v>
       </c>
     </row>
   </sheetData>
